--- a/Ch05_古典的強化学習/逐次訪問MC_vx01_テンプレート.xlsx
+++ b/Ch05_古典的強化学習/逐次訪問MC_vx01_テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyapad\Dropbox\開発\ExcelReinforcementLearning\Excel_on_Final\Ch05_古典的強化学習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9910D5E1-F910-4D2E-9673-E4EF0768EE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF63EA-DA84-4BF5-A1C2-D6395658D579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{900BD54F-964B-4B18-8A97-F2E978D307A8}"/>
   </bookViews>
@@ -2040,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9203138-9690-4D79-A4D2-BBA1199990E8}">
   <dimension ref="A1:BM287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
